--- a/dictionaries/outcome_ath/1_0/1_0_trimester_rep.xlsx
+++ b/dictionaries/outcome_ath/1_0/1_0_trimester_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\fetal\forGithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD57D5-15B7-43FD-B708-D1411C04063E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F58DBB-E190-47A7-B088-215D2D9775BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/dictionaries/outcome_ath/1_0/1_0_trimester_rep.xlsx
+++ b/dictionaries/outcome_ath/1_0/1_0_trimester_rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\fetal\forGithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F58DBB-E190-47A7-B088-215D2D9775BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7A22D-4744-4054-9B47-F3E4A52B0B38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>

--- a/dictionaries/outcome_ath/1_0/1_0_trimester_rep.xlsx
+++ b/dictionaries/outcome_ath/1_0/1_0_trimester_rep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\fetal\forGithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD57D5-15B7-43FD-B708-D1411C04063E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3EC7A22D-4744-4054-9B47-F3E4A52B0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{496DA1B3-DE79-42AF-A978-A7FDA0640DA5}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
     <sheet name="Categories" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -117,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -131,169 +144,166 @@
     <t>label</t>
   </si>
   <si>
-    <t>alias</t>
+    <t>row_id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Unique identifer for the row in Opal</t>
+  </si>
+  <si>
+    <t>mother_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identifier number for the mother </t>
+  </si>
+  <si>
+    <t>child_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identifier number for the index child </t>
+  </si>
+  <si>
+    <t>age_trimester</t>
+  </si>
+  <si>
+    <t>Age of the child in trimesters</t>
+  </si>
+  <si>
+    <t>ga_us_t</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Gestational age when ultrasound in X trimester was performed</t>
+  </si>
+  <si>
+    <t>fetus_biparietal_diam_t</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Biparietal diameter of the fetus in X trimester</t>
+  </si>
+  <si>
+    <t>fetus_head_circum_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circumference of the head of the fetus in X trimester </t>
+  </si>
+  <si>
+    <t>fetus_abd_circum_t</t>
+  </si>
+  <si>
+    <t>Abdominal circumference of the fetus in X trimester</t>
+  </si>
+  <si>
+    <t>fetus_femur_length_t</t>
+  </si>
+  <si>
+    <t>Femur length of the fetus in X trimester</t>
+  </si>
+  <si>
+    <t>fetus_weight_t</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>Estimated weight of the fetus in X trimester</t>
+  </si>
+  <si>
+    <t>biparietal_diam_sdsWHO_t</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>Gestational age-adjusted biparietal diameter SDS  in X trimester based on overall WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>head_circum_sdsWHO_t</t>
+  </si>
+  <si>
+    <t>Gestational age-adjusted head circumference SDS  in X trimester based on overall WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>abd_circum_sdsWHO_t</t>
+  </si>
+  <si>
+    <t>Gestational age-adjusted abdominal circumference SDS  in X trimester based on overall WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>femur_length_sdsWHO_t</t>
+  </si>
+  <si>
+    <t>Gestational age-adjusted femur length SDS  in X trimester based on overall WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>weight_sdsWHO_t</t>
+  </si>
+  <si>
+    <t>Gestational age- and sex- adjusted estimated fetal weight SDS  in X trimester based on overall WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>biparietal_diam_sdsWHOEUR_t</t>
+  </si>
+  <si>
+    <t>Gestational age- and sex-adjusted biparietal diameter SDS  in X trimester based on European WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>head_circum_sdsWHOEUR_t</t>
+  </si>
+  <si>
+    <t>Gestational age- and sex-adjusted head circumference SDS  in X trimester based on European WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>abd_circum_sdsWHOEUR_t</t>
+  </si>
+  <si>
+    <t>Gestational age- and sex-adjusted abdominal circumference SDS  in X trimester based on European WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>femur_length_sdsWHOEUR_t</t>
+  </si>
+  <si>
+    <t>Gestational age- and sex-adjusted femur length SDS  in X trimester based on European WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>weight_sdsWHOEUR_t</t>
+  </si>
+  <si>
+    <t>Gestational age- and sex- adjusted estimated fetal weight SDS  in X trimester based on European WHO-based reference growth curves</t>
+  </si>
+  <si>
+    <t>pi_uma_t</t>
+  </si>
+  <si>
+    <t>Pulsatility index umbilical artery in X trimester</t>
+  </si>
+  <si>
+    <t>pi_uta_t</t>
+  </si>
+  <si>
+    <t>Pulsatility index uterine artery in X trimester</t>
   </si>
   <si>
     <t>variable</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>ga_us_t</t>
-  </si>
-  <si>
-    <t>fetus_biparietal_diam_t</t>
-  </si>
-  <si>
-    <t>fetus_head_circum_t</t>
-  </si>
-  <si>
-    <t>fetus_abd_circum_t</t>
-  </si>
-  <si>
-    <t>fetus_femur_length_t</t>
-  </si>
-  <si>
-    <t>fetus_weight_t</t>
-  </si>
-  <si>
-    <t>biparietal_diam_sdsWHO_t</t>
-  </si>
-  <si>
-    <t>Gestational age when ultrasound in X trimester was performed</t>
-  </si>
-  <si>
-    <t>Biparietal diameter of the fetus in X trimester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circumference of the head of the fetus in X trimester </t>
-  </si>
-  <si>
-    <t>Abdominal circumference of the fetus in X trimester</t>
-  </si>
-  <si>
-    <t>Femur length of the fetus in X trimester</t>
-  </si>
-  <si>
-    <t>Estimated weight of the fetus in X trimester</t>
-  </si>
-  <si>
-    <t>Gestational age-adjusted biparietal diameter SDS  in X trimester based on overall WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age-adjusted head circumference SDS  in X trimester based on overall WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age-adjusted abdominal circumference SDS  in X trimester based on overall WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age-adjusted femur length SDS  in X trimester based on overall WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age- and sex- adjusted estimated fetal weight SDS  in X trimester based on overall WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age- and sex-adjusted biparietal diameter SDS  in X trimester based on European WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age- and sex-adjusted head circumference SDS  in X trimester based on European WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age- and sex-adjusted abdominal circumference SDS  in X trimester based on European WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age- and sex-adjusted femur length SDS  in X trimester based on European WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Gestational age- and sex- adjusted estimated fetal weight SDS  in X trimester based on European WHO-based reference growth curves</t>
-  </si>
-  <si>
-    <t>Pulsatility index umbilical artery in X trimester</t>
-  </si>
-  <si>
-    <t>Pulsatility index uterine artery in X trimester</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm </t>
-  </si>
-  <si>
-    <t>gm</t>
-  </si>
-  <si>
-    <t>head_circum_sdsWHO_t</t>
-  </si>
-  <si>
-    <t>abd_circum_sdsWHO_t</t>
-  </si>
-  <si>
-    <t>femur_length_sdsWHO_t</t>
-  </si>
-  <si>
-    <t>weight_sdsWHO_t</t>
-  </si>
-  <si>
-    <t>biparietal_diam_sdsWHOEUR_t</t>
-  </si>
-  <si>
-    <t>head_circum_sdsWHOEUR_t</t>
-  </si>
-  <si>
-    <t>abd_circum_sdsWHOEUR_t</t>
-  </si>
-  <si>
-    <t>femur_length_sdsWHOEUR_t</t>
-  </si>
-  <si>
-    <t>weight_sdsWHOEUR_t</t>
-  </si>
-  <si>
-    <t>pi_uma_t</t>
-  </si>
-  <si>
-    <t>pi_uta_t</t>
-  </si>
-  <si>
-    <t>mother_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier number for the mother </t>
-  </si>
-  <si>
-    <t>child_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier number for the index child </t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>sds</t>
-  </si>
-  <si>
-    <t>row_id</t>
-  </si>
-  <si>
-    <t>Unique identifer for the row in Opal</t>
-  </si>
-  <si>
-    <t>age_trimester</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Age of the child in trimesters</t>
   </si>
   <si>
     <t>isMissing</t>
@@ -303,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -417,12 +427,6 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -444,14 +448,8 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,18 +550,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -712,29 +698,14 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1243,349 +1214,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1606,27 +1555,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
